--- a/results/Annelinn_todolist.xlsx
+++ b/results/Annelinn_todolist.xlsx
@@ -604,7 +604,7 @@
         <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>1050</v>
+        <v>1320</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="H4" t="n">
-        <v>1140</v>
+        <v>1200</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H5" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="H8" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H10" t="n">
         <v>1320</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1157,16 +1157,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H11" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>W30225336</t>
+          <t>W30225210</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H15" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>2683.223832743916</v>
+        <v>2807.734512855956</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1492,25 +1492,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N2892029938</t>
+          <t>W30224896</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="H16" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2827.888155077531</v>
+        <v>2870.604059647439</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2683.223832743916</v>
+        <v>2807.734512855956</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1764,16 +1764,16 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>W762546500</t>
+          <t>W895265716</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Node_33</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H20" t="n">
         <v>1200</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>2871.044009625303</v>
+        <v>2605.37754163827</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>W30241695</t>
+          <t>N7795404754</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H21" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>2897.307314483036</v>
+        <v>2911.510140987198</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2045,10 +2045,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H24" t="n">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H25" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H26" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H29" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="H30" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H31" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H34" t="n">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H35" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H36" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H37" t="n">
         <v>1260</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3214,25 +3214,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>W376310803</t>
+          <t>W30227676</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_32</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H41" t="n">
-        <v>1170</v>
+        <v>1140</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>3025.578508015489</v>
+        <v>3446.133091252033</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3282,25 +3282,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>W30225210</t>
+          <t>N3029595703</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_6</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H42" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>3196.841939410504</v>
+        <v>3125.262332292876</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>3025.578508015489</v>
+        <v>3446.133091252033</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N12947474143</t>
+          <t>N2206346981</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3563,16 +3563,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H46" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>3586.451176698357</v>
+        <v>3154.543716825064</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3622,12 +3622,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>N12049163920</t>
+          <t>W30225210</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>3042.501957414386</v>
+        <v>3125.09615443028</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3826,25 +3826,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>W30228589</t>
+          <t>W30238856</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_4</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H50" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>4381.896780202526</v>
+        <v>4367.57156437382</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>W30228956</t>
+          <t>N12872951501</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_26</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="H51" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>4495.512531102985</v>
+        <v>4983.845514715748</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -4098,25 +4098,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>W30228589</t>
+          <t>W30238856</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_4</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H54" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>4381.896780202526</v>
+        <v>4367.57156437382</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4166,25 +4166,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>W317162564</t>
+          <t>W598405283</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Node_13</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H55" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>5036.405016732241</v>
+        <v>4808.501341550334</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H58" t="n">
         <v>1290</v>
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H59" t="n">
         <v>1260</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4519,16 +4519,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H60" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H63" t="n">
-        <v>1110</v>
+        <v>1020</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -4798,13 +4798,13 @@
         <v>480</v>
       </c>
       <c r="H64" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H66" t="n">
         <v>1320</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5202,25 +5202,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>W30225210</t>
+          <t>N9234880112</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="H70" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="O70" t="n">
-        <v>2555.106598805969</v>
+        <v>2716.660478245991</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -5270,25 +5270,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>W328144864</t>
+          <t>W30234816</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H71" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>2495.963074107857</v>
+        <v>2607.902527351637</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>2555.106598805969</v>
+        <v>2716.660478245991</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -5542,25 +5542,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>W30230203</t>
+          <t>N3029595703</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_6</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="H75" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="O75" t="n">
-        <v>3465.251968071774</v>
+        <v>3465.985229455197</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -5610,16 +5610,16 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>N11685092822</t>
+          <t>N7795404754</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Node_17</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H76" t="n">
         <v>1290</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>3055.340753822395</v>
+        <v>3540.900977736047</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -5826,13 +5826,13 @@
         <v>480</v>
       </c>
       <c r="H79" t="n">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -5893,16 +5893,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H80" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H83" t="n">
         <v>1320</v>
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H84" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -6239,10 +6239,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H85" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H88" t="n">
-        <v>1320</v>
+        <v>1050</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -6515,16 +6515,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H89" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -6588,13 +6588,13 @@
         <v>480</v>
       </c>
       <c r="H90" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -6655,16 +6655,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H91" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -6922,25 +6922,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>W762546500</t>
+          <t>W225201081</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Node_33</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H95" t="n">
-        <v>1200</v>
+        <v>1290</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>2922.525362251009</v>
+        <v>2873.809758237229</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -6990,25 +6990,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>N11292538172</t>
+          <t>W278982500</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_19</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H96" t="n">
-        <v>1230</v>
+        <v>1140</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="O96" t="n">
-        <v>2938.701686933798</v>
+        <v>2640.288414235665</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>2922.525362251009</v>
+        <v>2873.809758237229</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -7262,25 +7262,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>N2189631031</t>
+          <t>W762546500</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_33</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H100" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>2</v>
       </c>
       <c r="O100" t="n">
-        <v>2511.992107667247</v>
+        <v>2922.525362251009</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -7330,25 +7330,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>W123870530</t>
+          <t>N11292538172</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Node_42</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H101" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>2861.332459725687</v>
+        <v>2938.701686933798</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H104" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -7613,16 +7613,16 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H105" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -7683,16 +7683,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H106" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H109" t="n">
-        <v>1230</v>
+        <v>1110</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -7959,16 +7959,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H110" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -8029,16 +8029,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="H111" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -8099,16 +8099,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H112" t="n">
-        <v>1260</v>
+        <v>1080</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>510</v>
       </c>
       <c r="H115" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -8375,16 +8375,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="H116" t="n">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -8448,13 +8448,13 @@
         <v>600</v>
       </c>
       <c r="H117" t="n">
-        <v>1200</v>
+        <v>1290</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -8654,13 +8654,13 @@
         <v>510</v>
       </c>
       <c r="H120" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -8721,16 +8721,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H121" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -8791,16 +8791,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H122" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -9124,25 +9124,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>W30229819</t>
+          <t>R6109929</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_7</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H127" t="n">
-        <v>1260</v>
+        <v>1140</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="O127" t="n">
-        <v>3487.725205664492</v>
+        <v>3313.072257191066</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -9396,25 +9396,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>W30234829</t>
+          <t>W720432742</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H131" t="n">
-        <v>1170</v>
+        <v>1230</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="O131" t="n">
-        <v>2589.184463927045</v>
+        <v>2685.156290170528</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -9464,25 +9464,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>W637435088</t>
+          <t>N1314066461</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G132" t="n">
         <v>510</v>
       </c>
       <c r="H132" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>2</v>
       </c>
       <c r="O132" t="n">
-        <v>2539.935180803029</v>
+        <v>2523.920344515556</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -9668,25 +9668,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>W328144864</t>
+          <t>N4255823179</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H135" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>2</v>
       </c>
       <c r="O135" t="n">
-        <v>4394.131191445646</v>
+        <v>4510.114993252282</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -9736,25 +9736,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>W183157429</t>
+          <t>W1164871513</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Node_36</t>
+          <t>Node_32</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="H136" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="O136" t="n">
-        <v>4491.70068392744</v>
+        <v>4465.520131242401</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -9940,25 +9940,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>N4255823179</t>
+          <t>W328144864</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H139" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="O139" t="n">
-        <v>4510.114993252282</v>
+        <v>4394.131191445646</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -10008,25 +10008,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>W1164871513</t>
+          <t>W183157429</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Node_32</t>
+          <t>Node_36</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H140" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>4465.520131242401</v>
+        <v>4491.70068392744</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -10280,25 +10280,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>W183157429</t>
+          <t>N10727545074</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Node_36</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G144" t="n">
         <v>510</v>
       </c>
       <c r="H144" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I144" t="b">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>2</v>
       </c>
       <c r="O144" t="n">
-        <v>4491.70068392744</v>
+        <v>4427.663190538179</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>510</v>
       </c>
       <c r="H147" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I147" t="b">
         <v>0</v>
@@ -10563,16 +10563,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H148" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I148" t="b">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -10633,16 +10633,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H149" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -10839,10 +10839,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H152" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I152" t="b">
         <v>0</v>
@@ -10909,16 +10909,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H153" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -10979,16 +10979,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H154" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -11049,16 +11049,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H155" t="n">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -11316,25 +11316,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>W213731319</t>
+          <t>W407659360</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_42</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H159" t="n">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>2</v>
       </c>
       <c r="O159" t="n">
-        <v>2831.250267138061</v>
+        <v>2729.252402111979</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -11384,25 +11384,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>N8890006835</t>
+          <t>N2189631031</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Node_4</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H160" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>2</v>
       </c>
       <c r="O160" t="n">
-        <v>2702.864739718812</v>
+        <v>2893.638573598239</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="O163" t="n">
-        <v>2831.250267138061</v>
+        <v>2729.252402111979</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H168" t="n">
         <v>1320</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="H169" t="n">
         <v>1260</v>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -12077,16 +12077,16 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H170" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -12412,25 +12412,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>N12050955222</t>
+          <t>W30225210</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H175" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="O175" t="n">
-        <v>3559.367084943164</v>
+        <v>3125.09615443028</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
@@ -12684,25 +12684,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>N10727545074</t>
+          <t>R6109929</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_7</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H179" t="n">
-        <v>1320</v>
+        <v>1140</v>
       </c>
       <c r="I179" t="b">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>2</v>
       </c>
       <c r="O179" t="n">
-        <v>2497.515487269539</v>
+        <v>2982.790713226579</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
@@ -12752,25 +12752,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>N12049163920</t>
+          <t>W30229818</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H180" t="n">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>2</v>
       </c>
       <c r="O180" t="n">
-        <v>2492.287574283248</v>
+        <v>2677.415143319975</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
@@ -12965,10 +12965,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H183" t="n">
-        <v>1110</v>
+        <v>1320</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -13035,16 +13035,16 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H184" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I184" t="b">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -13108,13 +13108,13 @@
         <v>540</v>
       </c>
       <c r="H185" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H188" t="n">
         <v>1290</v>
@@ -13381,16 +13381,16 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H189" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="I189" t="b">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -13454,13 +13454,13 @@
         <v>540</v>
       </c>
       <c r="H190" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="I190" t="b">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>480</v>
       </c>
       <c r="H193" t="n">
-        <v>1020</v>
+        <v>1170</v>
       </c>
       <c r="I193" t="b">
         <v>0</v>
@@ -13730,7 +13730,7 @@
         <v>570</v>
       </c>
       <c r="H194" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I194" t="b">
         <v>0</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H195" t="n">
         <v>1230</v>
@@ -14003,10 +14003,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H198" t="n">
-        <v>1110</v>
+        <v>1320</v>
       </c>
       <c r="I198" t="b">
         <v>0</v>
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H199" t="n">
         <v>1260</v>
@@ -14082,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -14146,13 +14146,13 @@
         <v>510</v>
       </c>
       <c r="H200" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I200" t="b">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -14422,13 +14422,13 @@
         <v>540</v>
       </c>
       <c r="H204" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I204" t="b">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -14489,16 +14489,16 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H205" t="n">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="I205" t="b">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -14754,25 +14754,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>W30224308</t>
+          <t>W30238262</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_4</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H209" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I209" t="b">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>2</v>
       </c>
       <c r="O209" t="n">
-        <v>2620.387526791506</v>
+        <v>2911.158553487601</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -14822,25 +14822,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>N6304094831</t>
+          <t>W30228890</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Node_4</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H210" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I210" t="b">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>2</v>
       </c>
       <c r="O210" t="n">
-        <v>2955.200903302035</v>
+        <v>2887.111593548665</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="O213" t="n">
-        <v>2620.387526791506</v>
+        <v>2911.158553487601</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>W30228956</t>
+          <t>W776319440</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -15106,13 +15106,13 @@
         <v>510</v>
       </c>
       <c r="H214" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I214" t="b">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>2</v>
       </c>
       <c r="O214" t="n">
-        <v>2660.52770692108</v>
+        <v>2644.078679319245</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
@@ -15162,25 +15162,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>W1206098140</t>
+          <t>N13255849601</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H215" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I215" t="b">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>2</v>
       </c>
       <c r="O215" t="n">
-        <v>2538.863537118154</v>
+        <v>2817.966564402739</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>510</v>
       </c>
       <c r="H226" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I226" t="b">
         <v>0</v>
@@ -15989,16 +15989,16 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="H227" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I227" t="b">
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -16059,16 +16059,16 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H228" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I228" t="b">
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -16129,16 +16129,16 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H229" t="n">
-        <v>1320</v>
+        <v>1140</v>
       </c>
       <c r="I229" t="b">
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -16335,10 +16335,10 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H232" t="n">
-        <v>1110</v>
+        <v>1290</v>
       </c>
       <c r="I232" t="b">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H233" t="n">
         <v>1320</v>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -16475,16 +16475,16 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="H234" t="n">
-        <v>1320</v>
+        <v>1110</v>
       </c>
       <c r="I234" t="b">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>W130037641</t>
+          <t>W30224727</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -16751,7 +16751,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H238" t="n">
         <v>1230</v>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>2</v>
       </c>
       <c r="O238" t="n">
-        <v>6939.123877023537</v>
+        <v>6722.007944096667</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
@@ -16810,25 +16810,25 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>W328144864</t>
+          <t>virtual_Dutties_citizen_67_1</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="H239" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I239" t="b">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -16848,8 +16848,10 @@
       <c r="N239" t="n">
         <v>2</v>
       </c>
-      <c r="O239" t="n">
-        <v>6531.104842111168</v>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>virtual</t>
+        </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
@@ -16878,25 +16880,25 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>W130037641</t>
+          <t>virtual_Dutties_citizen_67_2</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H240" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I240" t="b">
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -16916,8 +16918,10 @@
       <c r="N240" t="n">
         <v>2</v>
       </c>
-      <c r="O240" t="n">
-        <v>6531.104842111168</v>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>virtual</t>
+        </is>
       </c>
       <c r="P240" t="inlineStr">
         <is>
@@ -17121,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="O243" t="n">
-        <v>3191.138762544554</v>
+        <v>3130.159843826863</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
@@ -17150,7 +17154,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>W598405283</t>
+          <t>N1900919282</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -17159,16 +17163,16 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H244" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I244" t="b">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -17189,7 +17193,7 @@
         <v>2</v>
       </c>
       <c r="O244" t="n">
-        <v>3416.163400266795</v>
+        <v>3010.35865776799</v>
       </c>
       <c r="P244" t="inlineStr">
         <is>
@@ -17218,7 +17222,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>W30238571</t>
+          <t>N7072382594</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -17227,16 +17231,16 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H245" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I245" t="b">
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -17257,7 +17261,7 @@
         <v>2</v>
       </c>
       <c r="O245" t="n">
-        <v>3391.935989818091</v>
+        <v>3562.130751314698</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -17461,7 +17465,7 @@
         <v>1</v>
       </c>
       <c r="O248" t="n">
-        <v>3416.163400266795</v>
+        <v>3010.35865776799</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
@@ -17490,25 +17494,25 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>W30234816</t>
+          <t>W30224087</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H249" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I249" t="b">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -17529,7 +17533,7 @@
         <v>2</v>
       </c>
       <c r="O249" t="n">
-        <v>2977.329745698355</v>
+        <v>2581.245264635475</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -17558,25 +17562,25 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>N4475401040</t>
+          <t>W30232985</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_7</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H250" t="n">
-        <v>1140</v>
+        <v>1170</v>
       </c>
       <c r="I250" t="b">
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -17597,7 +17601,7 @@
         <v>2</v>
       </c>
       <c r="O250" t="n">
-        <v>2787.896870197728</v>
+        <v>2662.405965285767</v>
       </c>
       <c r="P250" t="inlineStr">
         <is>
@@ -17774,13 +17778,13 @@
         <v>510</v>
       </c>
       <c r="H253" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I253" t="b">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -17841,16 +17845,16 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="H254" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I254" t="b">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -18047,10 +18051,10 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H257" t="n">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="I257" t="b">
         <v>0</v>
@@ -18120,7 +18124,7 @@
         <v>480</v>
       </c>
       <c r="H258" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I258" t="b">
         <v>0</v>
@@ -18187,10 +18191,10 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H259" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I259" t="b">
         <v>0</v>
@@ -18257,10 +18261,10 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H260" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I260" t="b">
         <v>0</v>
@@ -18522,7 +18526,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>W1149821722</t>
+          <t>W30224727</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -18534,13 +18538,13 @@
         <v>480</v>
       </c>
       <c r="H264" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I264" t="b">
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -18561,7 +18565,7 @@
         <v>2</v>
       </c>
       <c r="O264" t="n">
-        <v>2691.74740087055</v>
+        <v>2812.043259167644</v>
       </c>
       <c r="P264" t="inlineStr">
         <is>
@@ -18590,16 +18594,16 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>N12029165423</t>
+          <t>W776319440</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Node_4</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H265" t="n">
         <v>1260</v>
@@ -18608,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -18629,7 +18633,7 @@
         <v>2</v>
       </c>
       <c r="O265" t="n">
-        <v>2483.012594531773</v>
+        <v>2870.786704484896</v>
       </c>
       <c r="P265" t="inlineStr">
         <is>
@@ -18833,7 +18837,7 @@
         <v>1</v>
       </c>
       <c r="O268" t="n">
-        <v>2691.74740087055</v>
+        <v>2812.043259167644</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
@@ -18862,25 +18866,25 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>N12386361677</t>
+          <t>W1206101333</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H269" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I269" t="b">
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -18901,7 +18905,7 @@
         <v>2</v>
       </c>
       <c r="O269" t="n">
-        <v>2990.502565136411</v>
+        <v>3483.029465902358</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
@@ -18930,7 +18934,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>W1125334336</t>
+          <t>N937578149</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -18948,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -18969,7 +18973,7 @@
         <v>2</v>
       </c>
       <c r="O270" t="n">
-        <v>3481.086549535608</v>
+        <v>3489.217592878102</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
@@ -19173,7 +19177,7 @@
         <v>1</v>
       </c>
       <c r="O273" t="n">
-        <v>2990.502565136411</v>
+        <v>3483.029465902358</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
@@ -19202,16 +19206,16 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>N2189631031</t>
+          <t>W123870530</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_42</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H274" t="n">
         <v>1320</v>
@@ -19220,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -19241,7 +19245,7 @@
         <v>2</v>
       </c>
       <c r="O274" t="n">
-        <v>2511.992107667247</v>
+        <v>2861.982967141079</v>
       </c>
       <c r="P274" t="inlineStr">
         <is>
@@ -19270,25 +19274,25 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>W598405283</t>
+          <t>W229051553</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G275" t="n">
         <v>540</v>
       </c>
       <c r="H275" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I275" t="b">
         <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -19309,7 +19313,7 @@
         <v>2</v>
       </c>
       <c r="O275" t="n">
-        <v>2779.779783415517</v>
+        <v>2647.973613928179</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
@@ -19483,7 +19487,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H278" t="n">
         <v>1320</v>
@@ -19623,10 +19627,10 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H280" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I280" t="b">
         <v>0</v>
@@ -19829,10 +19833,10 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H283" t="n">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="I283" t="b">
         <v>0</v>
@@ -19899,7 +19903,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="H284" t="n">
         <v>1290</v>
@@ -19908,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -19969,16 +19973,16 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H285" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I285" t="b">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -20039,16 +20043,16 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H286" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I286" t="b">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -20245,10 +20249,10 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H289" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I289" t="b">
         <v>0</v>
@@ -20315,16 +20319,16 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H290" t="n">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="I290" t="b">
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -20385,16 +20389,16 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H291" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I291" t="b">
         <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -20591,10 +20595,10 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H294" t="n">
-        <v>1080</v>
+        <v>1320</v>
       </c>
       <c r="I294" t="b">
         <v>0</v>
@@ -20661,16 +20665,16 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H295" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I295" t="b">
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -20734,13 +20738,13 @@
         <v>570</v>
       </c>
       <c r="H296" t="n">
-        <v>1170</v>
+        <v>1320</v>
       </c>
       <c r="I296" t="b">
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -20804,13 +20808,13 @@
         <v>510</v>
       </c>
       <c r="H297" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I297" t="b">
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -21068,7 +21072,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>W30235809</t>
+          <t>N1314066461</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -21077,16 +21081,16 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H301" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I301" t="b">
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -21107,7 +21111,7 @@
         <v>2</v>
       </c>
       <c r="O301" t="n">
-        <v>3568.042330050514</v>
+        <v>3066.480678346646</v>
       </c>
       <c r="P301" t="inlineStr">
         <is>
@@ -21136,7 +21140,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>W30238955</t>
+          <t>W1156007637</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -21148,13 +21152,13 @@
         <v>480</v>
       </c>
       <c r="H302" t="n">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="I302" t="b">
         <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -21175,7 +21179,7 @@
         <v>2</v>
       </c>
       <c r="O302" t="n">
-        <v>3450.600498080572</v>
+        <v>3317.221629831269</v>
       </c>
       <c r="P302" t="inlineStr">
         <is>
@@ -21379,7 +21383,7 @@
         <v>1</v>
       </c>
       <c r="O305" t="n">
-        <v>3568.042330050514</v>
+        <v>3066.480678346646</v>
       </c>
       <c r="P305" t="inlineStr">
         <is>
@@ -21408,25 +21412,25 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>N1314066461</t>
+          <t>N13047928278</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H306" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I306" t="b">
         <v>0</v>
       </c>
       <c r="J306" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -21447,7 +21451,7 @@
         <v>2</v>
       </c>
       <c r="O306" t="n">
-        <v>3066.480678346646</v>
+        <v>3294.867041567254</v>
       </c>
       <c r="P306" t="inlineStr">
         <is>
@@ -21476,16 +21480,16 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>W30224727</t>
+          <t>W30228956</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H307" t="n">
         <v>1230</v>
@@ -21494,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -21515,7 +21519,7 @@
         <v>2</v>
       </c>
       <c r="O307" t="n">
-        <v>3500.090719680692</v>
+        <v>3111.481591283993</v>
       </c>
       <c r="P307" t="inlineStr">
         <is>
@@ -21698,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -21766,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -21961,7 +21965,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="H314" t="n">
         <v>1170</v>
@@ -21970,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -22031,7 +22035,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H315" t="n">
         <v>1260</v>
@@ -22040,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -22237,16 +22241,16 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H318" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I318" t="b">
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -22307,16 +22311,16 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H319" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I319" t="b">
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -22380,13 +22384,13 @@
         <v>450</v>
       </c>
       <c r="H320" t="n">
-        <v>1320</v>
+        <v>1140</v>
       </c>
       <c r="I320" t="b">
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -22642,25 +22646,25 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>W1206098140</t>
+          <t>N3029595703</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_6</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="H324" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I324" t="b">
         <v>0</v>
       </c>
       <c r="J324" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -22681,7 +22685,7 @@
         <v>2</v>
       </c>
       <c r="O324" t="n">
-        <v>2777.799316398918</v>
+        <v>2519.316959253268</v>
       </c>
       <c r="P324" t="inlineStr">
         <is>
@@ -22710,25 +22714,25 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>W30229190</t>
+          <t>W30232117</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G325" t="n">
         <v>420</v>
       </c>
       <c r="H325" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I325" t="b">
         <v>0</v>
       </c>
       <c r="J325" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -22749,7 +22753,7 @@
         <v>2</v>
       </c>
       <c r="O325" t="n">
-        <v>2733.676465548479</v>
+        <v>2750.833178827786</v>
       </c>
       <c r="P325" t="inlineStr">
         <is>
@@ -22953,7 +22957,7 @@
         <v>1</v>
       </c>
       <c r="O328" t="n">
-        <v>2777.799316398918</v>
+        <v>2519.316959253268</v>
       </c>
       <c r="P328" t="inlineStr">
         <is>
@@ -23000,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -23068,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -23322,25 +23326,25 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>N4812389480</t>
+          <t>N7816268616</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Node_7</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G334" t="n">
         <v>420</v>
       </c>
       <c r="H334" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I334" t="b">
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -23361,7 +23365,7 @@
         <v>2</v>
       </c>
       <c r="O334" t="n">
-        <v>2566.732831857887</v>
+        <v>2935.802158896411</v>
       </c>
       <c r="P334" t="inlineStr">
         <is>
@@ -23390,16 +23394,16 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>N13273653902</t>
+          <t>W1125334336</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H335" t="n">
         <v>1260</v>
@@ -23408,7 +23412,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -23429,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="O335" t="n">
-        <v>2647.444485782071</v>
+        <v>2778.195985145132</v>
       </c>
       <c r="P335" t="inlineStr">
         <is>
@@ -23606,7 +23610,7 @@
         <v>480</v>
       </c>
       <c r="H338" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I338" t="b">
         <v>0</v>
@@ -23673,16 +23677,16 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H339" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I339" t="b">
         <v>0</v>
       </c>
       <c r="J339" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -23743,16 +23747,16 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H340" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I340" t="b">
         <v>0</v>
       </c>
       <c r="J340" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -23816,13 +23820,13 @@
         <v>570</v>
       </c>
       <c r="H341" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="I341" t="b">
         <v>0</v>
       </c>
       <c r="J341" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -24098,7 +24102,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -24148,16 +24152,16 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>N11292508516</t>
+          <t>W1125334336</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G346" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H346" t="n">
         <v>1260</v>
@@ -24166,7 +24170,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -24187,7 +24191,7 @@
         <v>2</v>
       </c>
       <c r="O346" t="n">
-        <v>2973.222338379694</v>
+        <v>2778.195985145132</v>
       </c>
       <c r="P346" t="inlineStr">
         <is>
@@ -24364,7 +24368,7 @@
         <v>480</v>
       </c>
       <c r="H349" t="n">
-        <v>1050</v>
+        <v>1260</v>
       </c>
       <c r="I349" t="b">
         <v>0</v>
@@ -24431,16 +24435,16 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="H350" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="I350" t="b">
         <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -24501,16 +24505,16 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H351" t="n">
-        <v>1170</v>
+        <v>1320</v>
       </c>
       <c r="I351" t="b">
         <v>0</v>
       </c>
       <c r="J351" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -24707,10 +24711,10 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H354" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I354" t="b">
         <v>0</v>
@@ -24777,16 +24781,16 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="H355" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I355" t="b">
         <v>0</v>
       </c>
       <c r="J355" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -24847,16 +24851,16 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="H356" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="I356" t="b">
         <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -24920,13 +24924,13 @@
         <v>510</v>
       </c>
       <c r="H357" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I357" t="b">
         <v>0</v>
       </c>
       <c r="J357" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -25184,16 +25188,16 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>W30221845</t>
+          <t>W762546500</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_33</t>
         </is>
       </c>
       <c r="G361" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H361" t="n">
         <v>1200</v>
@@ -25202,7 +25206,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -25223,7 +25227,7 @@
         <v>2</v>
       </c>
       <c r="O361" t="n">
-        <v>3019.821193387983</v>
+        <v>3098.871444418041</v>
       </c>
       <c r="P361" t="inlineStr">
         <is>
@@ -25252,25 +25256,25 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>W1164871513</t>
+          <t>R6109929</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Node_32</t>
+          <t>Node_7</t>
         </is>
       </c>
       <c r="G362" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="H362" t="n">
-        <v>1260</v>
+        <v>1140</v>
       </c>
       <c r="I362" t="b">
         <v>0</v>
       </c>
       <c r="J362" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -25291,7 +25295,7 @@
         <v>2</v>
       </c>
       <c r="O362" t="n">
-        <v>2984.131181714704</v>
+        <v>3313.072257191066</v>
       </c>
       <c r="P362" t="inlineStr">
         <is>
@@ -25495,7 +25499,7 @@
         <v>1</v>
       </c>
       <c r="O365" t="n">
-        <v>3019.821193387983</v>
+        <v>3098.871444418041</v>
       </c>
       <c r="P365" t="inlineStr">
         <is>
@@ -25524,25 +25528,25 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>W762546500</t>
+          <t>W637435088</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Node_33</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G366" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H366" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="I366" t="b">
         <v>0</v>
       </c>
       <c r="J366" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -25563,7 +25567,7 @@
         <v>2</v>
       </c>
       <c r="O366" t="n">
-        <v>3098.871444418041</v>
+        <v>3055.133693276925</v>
       </c>
       <c r="P366" t="inlineStr">
         <is>
@@ -25592,25 +25596,25 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>W895265716</t>
+          <t>W30238412</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G367" t="n">
         <v>480</v>
       </c>
       <c r="H367" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I367" t="b">
         <v>0</v>
       </c>
       <c r="J367" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -25631,7 +25635,7 @@
         <v>2</v>
       </c>
       <c r="O367" t="n">
-        <v>3229.034661498296</v>
+        <v>3421.314438352635</v>
       </c>
       <c r="P367" t="inlineStr">
         <is>
@@ -25805,10 +25809,10 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H370" t="n">
-        <v>1320</v>
+        <v>1110</v>
       </c>
       <c r="I370" t="b">
         <v>0</v>
@@ -25875,16 +25879,16 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="H371" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I371" t="b">
         <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -25945,16 +25949,16 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H372" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I372" t="b">
         <v>0</v>
       </c>
       <c r="J372" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -26151,10 +26155,10 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H375" t="n">
-        <v>1170</v>
+        <v>1320</v>
       </c>
       <c r="I375" t="b">
         <v>0</v>
@@ -26221,16 +26225,16 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="H376" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I376" t="b">
         <v>0</v>
       </c>
       <c r="J376" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -26291,16 +26295,16 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H377" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I377" t="b">
         <v>0</v>
       </c>
       <c r="J377" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -26497,7 +26501,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H380" t="n">
         <v>1320</v>
@@ -26567,16 +26571,16 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H381" t="n">
-        <v>1200</v>
+        <v>1290</v>
       </c>
       <c r="I381" t="b">
         <v>0</v>
       </c>
       <c r="J381" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -26637,16 +26641,16 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H382" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I382" t="b">
         <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -26707,16 +26711,16 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="H383" t="n">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="I383" t="b">
         <v>0</v>
       </c>
       <c r="J383" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -26992,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -27042,25 +27046,25 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>N7816268616</t>
+          <t>W1156007637</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G388" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H388" t="n">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="I388" t="b">
         <v>0</v>
       </c>
       <c r="J388" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -27081,7 +27085,7 @@
         <v>2</v>
       </c>
       <c r="O388" t="n">
-        <v>3294.599672604316</v>
+        <v>3032.125398799962</v>
       </c>
       <c r="P388" t="inlineStr">
         <is>
@@ -27314,7 +27318,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>N4475401040</t>
+          <t>N4469405590</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -27323,16 +27327,16 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H392" t="n">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="I392" t="b">
         <v>0</v>
       </c>
       <c r="J392" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -27353,7 +27357,7 @@
         <v>2</v>
       </c>
       <c r="O392" t="n">
-        <v>3476.320576916509</v>
+        <v>3096.190831289701</v>
       </c>
       <c r="P392" t="inlineStr">
         <is>
@@ -27382,25 +27386,25 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>W1156007637</t>
+          <t>N7816268616</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H393" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="I393" t="b">
         <v>0</v>
       </c>
       <c r="J393" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -27421,7 +27425,7 @@
         <v>2</v>
       </c>
       <c r="O393" t="n">
-        <v>3025.475201573744</v>
+        <v>3280.96829236669</v>
       </c>
       <c r="P393" t="inlineStr">
         <is>
@@ -27595,10 +27599,10 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H396" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I396" t="b">
         <v>0</v>
@@ -27668,13 +27672,13 @@
         <v>570</v>
       </c>
       <c r="H397" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I397" t="b">
         <v>0</v>
       </c>
       <c r="J397" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -27735,16 +27739,16 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H398" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I398" t="b">
         <v>0</v>
       </c>
       <c r="J398" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -27941,16 +27945,16 @@
         </is>
       </c>
       <c r="G401" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H401" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I401" t="b">
         <v>0</v>
       </c>
       <c r="J401" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -28014,13 +28018,13 @@
         <v>510</v>
       </c>
       <c r="H402" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I402" t="b">
         <v>0</v>
       </c>
       <c r="J402" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -28081,16 +28085,16 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H403" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I403" t="b">
         <v>0</v>
       </c>
       <c r="J403" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -28317,7 +28321,7 @@
         <v>1</v>
       </c>
       <c r="O406" t="n">
-        <v>3402.659534487125</v>
+        <v>3446.864514307195</v>
       </c>
       <c r="P406" t="inlineStr">
         <is>
@@ -28346,25 +28350,25 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>W30235809</t>
+          <t>W278982500</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_19</t>
         </is>
       </c>
       <c r="G407" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H407" t="n">
-        <v>1320</v>
+        <v>1140</v>
       </c>
       <c r="I407" t="b">
         <v>0</v>
       </c>
       <c r="J407" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -28385,7 +28389,7 @@
         <v>2</v>
       </c>
       <c r="O407" t="n">
-        <v>2865.883020701501</v>
+        <v>2511.896717840396</v>
       </c>
       <c r="P407" t="inlineStr">
         <is>
@@ -28414,7 +28418,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>N10956838295</t>
+          <t>W30241696</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -28423,16 +28427,16 @@
         </is>
       </c>
       <c r="G408" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H408" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I408" t="b">
         <v>0</v>
       </c>
       <c r="J408" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -28453,7 +28457,7 @@
         <v>2</v>
       </c>
       <c r="O408" t="n">
-        <v>2943.739888553805</v>
+        <v>2566.429343063886</v>
       </c>
       <c r="P408" t="inlineStr">
         <is>
@@ -28627,10 +28631,10 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H411" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I411" t="b">
         <v>0</v>
@@ -28697,16 +28701,16 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="H412" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I412" t="b">
         <v>0</v>
       </c>
       <c r="J412" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -28767,7 +28771,7 @@
         </is>
       </c>
       <c r="G413" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H413" t="n">
         <v>1320</v>
@@ -28776,7 +28780,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -28973,10 +28977,10 @@
         </is>
       </c>
       <c r="G416" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H416" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I416" t="b">
         <v>0</v>
@@ -29046,13 +29050,13 @@
         <v>600</v>
       </c>
       <c r="H417" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I417" t="b">
         <v>0</v>
       </c>
       <c r="J417" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -29113,16 +29117,16 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>660</v>
+        <v>510</v>
       </c>
       <c r="H418" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="I418" t="b">
         <v>0</v>
       </c>
       <c r="J418" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -29183,16 +29187,16 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H419" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I419" t="b">
         <v>0</v>
       </c>
       <c r="J419" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -29450,25 +29454,25 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>W30228791</t>
+          <t>W30225336</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Node_19</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G423" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H423" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I423" t="b">
         <v>0</v>
       </c>
       <c r="J423" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -29489,7 +29493,7 @@
         <v>2</v>
       </c>
       <c r="O423" t="n">
-        <v>3402.659534487125</v>
+        <v>3446.864514307195</v>
       </c>
       <c r="P423" t="inlineStr">
         <is>
@@ -29518,25 +29522,25 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>N12386361676</t>
+          <t>W1156007637</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H424" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I424" t="b">
         <v>0</v>
       </c>
       <c r="J424" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -29557,7 +29561,7 @@
         <v>2</v>
       </c>
       <c r="O424" t="n">
-        <v>3553.380347328929</v>
+        <v>3033.780822558666</v>
       </c>
       <c r="P424" t="inlineStr">
         <is>
@@ -29734,7 +29738,7 @@
         <v>510</v>
       </c>
       <c r="H427" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I427" t="b">
         <v>1</v>
@@ -29801,16 +29805,16 @@
         </is>
       </c>
       <c r="G428" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H428" t="n">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="I428" t="b">
         <v>0</v>
       </c>
       <c r="J428" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -29871,16 +29875,16 @@
         </is>
       </c>
       <c r="G429" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H429" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I429" t="b">
         <v>0</v>
       </c>
       <c r="J429" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -30077,10 +30081,10 @@
         </is>
       </c>
       <c r="G432" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H432" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I432" t="b">
         <v>1</v>
@@ -30150,13 +30154,13 @@
         <v>600</v>
       </c>
       <c r="H433" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I433" t="b">
         <v>0</v>
       </c>
       <c r="J433" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -30217,7 +30221,7 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="H434" t="n">
         <v>1260</v>
@@ -30226,7 +30230,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -30423,10 +30427,10 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H437" t="n">
-        <v>1320</v>
+        <v>1020</v>
       </c>
       <c r="I437" t="b">
         <v>1</v>
@@ -30493,16 +30497,16 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="H438" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I438" t="b">
         <v>0</v>
       </c>
       <c r="J438" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -30563,16 +30567,16 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H439" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I439" t="b">
         <v>0</v>
       </c>
       <c r="J439" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -30769,16 +30773,16 @@
         </is>
       </c>
       <c r="G442" t="n">
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="H442" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I442" t="b">
         <v>0</v>
       </c>
       <c r="J442" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -30839,16 +30843,16 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="H443" t="n">
-        <v>1290</v>
+        <v>1080</v>
       </c>
       <c r="I443" t="b">
         <v>0</v>
       </c>
       <c r="J443" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -30909,7 +30913,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H444" t="n">
         <v>1260</v>
@@ -30918,7 +30922,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -31115,10 +31119,10 @@
         </is>
       </c>
       <c r="G447" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H447" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I447" t="b">
         <v>0</v>
@@ -31188,13 +31192,13 @@
         <v>570</v>
       </c>
       <c r="H448" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I448" t="b">
         <v>0</v>
       </c>
       <c r="J448" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -31255,16 +31259,16 @@
         </is>
       </c>
       <c r="G449" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H449" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I449" t="b">
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -31461,16 +31465,16 @@
         </is>
       </c>
       <c r="G452" t="n">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="H452" t="n">
-        <v>1140</v>
+        <v>1170</v>
       </c>
       <c r="I452" t="b">
         <v>0</v>
       </c>
       <c r="J452" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -31531,16 +31535,16 @@
         </is>
       </c>
       <c r="G453" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H453" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I453" t="b">
         <v>0</v>
       </c>
       <c r="J453" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -31601,16 +31605,16 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H454" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I454" t="b">
         <v>0</v>
       </c>
       <c r="J454" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -31866,16 +31870,16 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>W208426861</t>
+          <t>W703497923</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_31</t>
         </is>
       </c>
       <c r="G458" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H458" t="n">
         <v>1320</v>
@@ -31884,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -31905,7 +31909,7 @@
         <v>2</v>
       </c>
       <c r="O458" t="n">
-        <v>3560.594790493214</v>
+        <v>3584.624625850704</v>
       </c>
       <c r="P458" t="inlineStr">
         <is>
@@ -31934,7 +31938,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>W598405283</t>
+          <t>N13273653902</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -31943,16 +31947,16 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="H459" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I459" t="b">
         <v>0</v>
       </c>
       <c r="J459" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -31973,7 +31977,7 @@
         <v>2</v>
       </c>
       <c r="O459" t="n">
-        <v>3034.835195783495</v>
+        <v>3273.959798262495</v>
       </c>
       <c r="P459" t="inlineStr">
         <is>
@@ -32177,7 +32181,7 @@
         <v>1</v>
       </c>
       <c r="O462" t="n">
-        <v>3560.594790493214</v>
+        <v>3584.624625850704</v>
       </c>
       <c r="P462" t="inlineStr">
         <is>
@@ -32206,25 +32210,25 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>W703497923</t>
+          <t>W1206098140</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Node_31</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G463" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H463" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I463" t="b">
         <v>0</v>
       </c>
       <c r="J463" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -32245,7 +32249,7 @@
         <v>2</v>
       </c>
       <c r="O463" t="n">
-        <v>3584.624625850704</v>
+        <v>3214.527126153849</v>
       </c>
       <c r="P463" t="inlineStr">
         <is>
@@ -32274,12 +32278,12 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>W538733613</t>
+          <t>W762691616</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G464" t="n">
@@ -32292,7 +32296,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -32313,7 +32317,7 @@
         <v>2</v>
       </c>
       <c r="O464" t="n">
-        <v>3553.665755017306</v>
+        <v>3196.588725634466</v>
       </c>
       <c r="P464" t="inlineStr">
         <is>
@@ -32487,7 +32491,7 @@
         </is>
       </c>
       <c r="G467" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H467" t="n">
         <v>1170</v>
@@ -32557,16 +32561,16 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H468" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I468" t="b">
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -32627,16 +32631,16 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H469" t="n">
-        <v>1170</v>
+        <v>1230</v>
       </c>
       <c r="I469" t="b">
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -32833,16 +32837,16 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H472" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I472" t="b">
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -32906,13 +32910,13 @@
         <v>570</v>
       </c>
       <c r="H473" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I473" t="b">
         <v>0</v>
       </c>
       <c r="J473" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -32973,16 +32977,16 @@
         </is>
       </c>
       <c r="G474" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H474" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I474" t="b">
         <v>0</v>
       </c>
       <c r="J474" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -33238,25 +33242,25 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>W1125334336</t>
+          <t>W598405283</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Node_0</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G478" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H478" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I478" t="b">
         <v>0</v>
       </c>
       <c r="J478" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -33277,7 +33281,7 @@
         <v>2</v>
       </c>
       <c r="O478" t="n">
-        <v>3068.262628936341</v>
+        <v>3244.451435544864</v>
       </c>
       <c r="P478" t="inlineStr">
         <is>
@@ -33306,25 +33310,25 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>N9234880112</t>
+          <t>N10727545074</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G479" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H479" t="n">
-        <v>1170</v>
+        <v>1320</v>
       </c>
       <c r="I479" t="b">
         <v>0</v>
       </c>
       <c r="J479" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -33345,7 +33349,7 @@
         <v>2</v>
       </c>
       <c r="O479" t="n">
-        <v>3362.197987639054</v>
+        <v>3215.529885842238</v>
       </c>
       <c r="P479" t="inlineStr">
         <is>
@@ -33549,7 +33553,7 @@
         <v>1</v>
       </c>
       <c r="O482" t="n">
-        <v>3068.262628936341</v>
+        <v>3244.451435544864</v>
       </c>
       <c r="P482" t="inlineStr">
         <is>
@@ -33578,25 +33582,25 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>R6109929</t>
+          <t>N4255823179</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Node_7</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G483" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H483" t="n">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="I483" t="b">
         <v>0</v>
       </c>
       <c r="J483" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -33617,7 +33621,7 @@
         <v>2</v>
       </c>
       <c r="O483" t="n">
-        <v>3154.808723120243</v>
+        <v>3331.045101327342</v>
       </c>
       <c r="P483" t="inlineStr">
         <is>
@@ -33646,25 +33650,25 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>W782377263</t>
+          <t>N8890006835</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_4</t>
         </is>
       </c>
       <c r="G484" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="H484" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I484" t="b">
         <v>0</v>
       </c>
       <c r="J484" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -33685,7 +33689,7 @@
         <v>2</v>
       </c>
       <c r="O484" t="n">
-        <v>3044.833906761265</v>
+        <v>3332.153030921319</v>
       </c>
       <c r="P484" t="inlineStr">
         <is>
@@ -33859,10 +33863,10 @@
         </is>
       </c>
       <c r="G487" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H487" t="n">
-        <v>1320</v>
+        <v>1170</v>
       </c>
       <c r="I487" t="b">
         <v>0</v>
@@ -33929,16 +33933,16 @@
         </is>
       </c>
       <c r="G488" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H488" t="n">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="I488" t="b">
         <v>0</v>
       </c>
       <c r="J488" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -33999,16 +34003,16 @@
         </is>
       </c>
       <c r="G489" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H489" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I489" t="b">
         <v>0</v>
       </c>
       <c r="J489" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -34078,7 +34082,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -34275,10 +34279,10 @@
         </is>
       </c>
       <c r="G493" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H493" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I493" t="b">
         <v>1</v>
@@ -34345,16 +34349,16 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H494" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I494" t="b">
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -34415,16 +34419,16 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H495" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I495" t="b">
         <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -34624,7 +34628,7 @@
         <v>480</v>
       </c>
       <c r="H498" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I498" t="b">
         <v>1</v>
@@ -34700,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -34764,13 +34768,13 @@
         <v>570</v>
       </c>
       <c r="H500" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="I500" t="b">
         <v>0</v>
       </c>
       <c r="J500" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -34967,10 +34971,10 @@
         </is>
       </c>
       <c r="G503" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H503" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I503" t="b">
         <v>1</v>
@@ -35037,16 +35041,16 @@
         </is>
       </c>
       <c r="G504" t="n">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="H504" t="n">
-        <v>1170</v>
+        <v>1320</v>
       </c>
       <c r="I504" t="b">
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -35107,16 +35111,16 @@
         </is>
       </c>
       <c r="G505" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H505" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I505" t="b">
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -35316,7 +35320,7 @@
         <v>540</v>
       </c>
       <c r="H508" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I508" t="b">
         <v>0</v>
@@ -35383,16 +35387,16 @@
         </is>
       </c>
       <c r="G509" t="n">
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="H509" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I509" t="b">
         <v>0</v>
       </c>
       <c r="J509" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -35453,16 +35457,16 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H510" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I510" t="b">
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -35659,16 +35663,16 @@
         </is>
       </c>
       <c r="G513" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H513" t="n">
-        <v>1140</v>
+        <v>1290</v>
       </c>
       <c r="I513" t="b">
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -35732,13 +35736,13 @@
         <v>540</v>
       </c>
       <c r="H514" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I514" t="b">
         <v>0</v>
       </c>
       <c r="J514" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -35799,16 +35803,16 @@
         </is>
       </c>
       <c r="G515" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H515" t="n">
-        <v>1320</v>
+        <v>1170</v>
       </c>
       <c r="I515" t="b">
         <v>0</v>
       </c>
       <c r="J515" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -36064,16 +36068,16 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>N12023826784</t>
+          <t>W30238412</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Node_4</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G519" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H519" t="n">
         <v>1260</v>
@@ -36082,7 +36086,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -36103,7 +36107,7 @@
         <v>2</v>
       </c>
       <c r="O519" t="n">
-        <v>2527.221205473588</v>
+        <v>2704.294946105409</v>
       </c>
       <c r="P519" t="inlineStr">
         <is>
@@ -36150,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -36171,7 +36175,7 @@
         <v>2</v>
       </c>
       <c r="O520" t="n">
-        <v>2868.063413832015</v>
+        <v>2532.787430453061</v>
       </c>
       <c r="P520" t="inlineStr">
         <is>
@@ -36375,7 +36379,7 @@
         <v>1</v>
       </c>
       <c r="O523" t="n">
-        <v>2527.221205473588</v>
+        <v>2704.294946105409</v>
       </c>
       <c r="P523" t="inlineStr">
         <is>
@@ -36404,25 +36408,25 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>N12947474143</t>
+          <t>W762546500</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_33</t>
         </is>
       </c>
       <c r="G524" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H524" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I524" t="b">
         <v>0</v>
       </c>
       <c r="J524" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -36443,7 +36447,7 @@
         <v>2</v>
       </c>
       <c r="O524" t="n">
-        <v>3312.643272944777</v>
+        <v>3330.498307329867</v>
       </c>
       <c r="P524" t="inlineStr">
         <is>
@@ -36472,25 +36476,25 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>N12049163920</t>
+          <t>R6109929</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_7</t>
         </is>
       </c>
       <c r="G525" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H525" t="n">
-        <v>1290</v>
+        <v>1140</v>
       </c>
       <c r="I525" t="b">
         <v>0</v>
       </c>
       <c r="J525" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -36511,7 +36515,7 @@
         <v>2</v>
       </c>
       <c r="O525" t="n">
-        <v>3042.501957414386</v>
+        <v>3313.072257191066</v>
       </c>
       <c r="P525" t="inlineStr">
         <is>
@@ -36685,10 +36689,10 @@
         </is>
       </c>
       <c r="G528" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H528" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I528" t="b">
         <v>0</v>
@@ -36755,16 +36759,16 @@
         </is>
       </c>
       <c r="G529" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H529" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I529" t="b">
         <v>0</v>
       </c>
       <c r="J529" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -36825,16 +36829,16 @@
         </is>
       </c>
       <c r="G530" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="H530" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I530" t="b">
         <v>0</v>
       </c>
       <c r="J530" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -37034,13 +37038,13 @@
         <v>570</v>
       </c>
       <c r="H533" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I533" t="b">
         <v>0</v>
       </c>
       <c r="J533" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -37101,16 +37105,16 @@
         </is>
       </c>
       <c r="G534" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H534" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I534" t="b">
         <v>0</v>
       </c>
       <c r="J534" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -37171,16 +37175,16 @@
         </is>
       </c>
       <c r="G535" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H535" t="n">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="I535" t="b">
         <v>0</v>
       </c>
       <c r="J535" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -37454,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -37504,25 +37508,25 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>N2885002036</t>
+          <t>W30232117</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G540" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H540" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I540" t="b">
         <v>0</v>
       </c>
       <c r="J540" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -37543,7 +37547,7 @@
         <v>2</v>
       </c>
       <c r="O540" t="n">
-        <v>2806.329202553322</v>
+        <v>2851.672934449225</v>
       </c>
       <c r="P540" t="inlineStr">
         <is>
@@ -37776,16 +37780,16 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>W350212789</t>
+          <t>W598405283</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G544" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="H544" t="n">
         <v>1230</v>
@@ -37794,7 +37798,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -37815,7 +37819,7 @@
         <v>2</v>
       </c>
       <c r="O544" t="n">
-        <v>3113.587931964198</v>
+        <v>3367.026661202652</v>
       </c>
       <c r="P544" t="inlineStr">
         <is>
@@ -37844,25 +37848,25 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>W30227676</t>
+          <t>W30238955</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Node_32</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G545" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H545" t="n">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="I545" t="b">
         <v>0</v>
       </c>
       <c r="J545" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -37883,7 +37887,7 @@
         <v>2</v>
       </c>
       <c r="O545" t="n">
-        <v>3559.097286296992</v>
+        <v>3087.889766643027</v>
       </c>
       <c r="P545" t="inlineStr">
         <is>
@@ -38087,7 +38091,7 @@
         <v>1</v>
       </c>
       <c r="O548" t="n">
-        <v>3113.587931964198</v>
+        <v>3367.026661202652</v>
       </c>
       <c r="P548" t="inlineStr">
         <is>
@@ -38116,7 +38120,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>W1156007637</t>
+          <t>W30225210</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -38125,16 +38129,16 @@
         </is>
       </c>
       <c r="G549" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H549" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I549" t="b">
         <v>0</v>
       </c>
       <c r="J549" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -38155,7 +38159,7 @@
         <v>2</v>
       </c>
       <c r="O549" t="n">
-        <v>2541.484984521167</v>
+        <v>2607.603628892693</v>
       </c>
       <c r="P549" t="inlineStr">
         <is>
@@ -38184,7 +38188,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>W1206098140</t>
+          <t>W328144864</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -38193,7 +38197,7 @@
         </is>
       </c>
       <c r="G550" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="H550" t="n">
         <v>1290</v>
@@ -38202,7 +38206,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -38223,7 +38227,7 @@
         <v>2</v>
       </c>
       <c r="O550" t="n">
-        <v>2955.218670923265</v>
+        <v>2495.963074107857</v>
       </c>
       <c r="P550" t="inlineStr">
         <is>
@@ -38467,16 +38471,16 @@
         </is>
       </c>
       <c r="G554" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H554" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I554" t="b">
         <v>0</v>
       </c>
       <c r="J554" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -38537,16 +38541,16 @@
         </is>
       </c>
       <c r="G555" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H555" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="I555" t="b">
         <v>0</v>
       </c>
       <c r="J555" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -38746,7 +38750,7 @@
         <v>540</v>
       </c>
       <c r="H558" t="n">
-        <v>1230</v>
+        <v>1020</v>
       </c>
       <c r="I558" t="b">
         <v>0</v>
@@ -38813,16 +38817,16 @@
         </is>
       </c>
       <c r="G559" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H559" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I559" t="b">
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -38883,16 +38887,16 @@
         </is>
       </c>
       <c r="G560" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H560" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I560" t="b">
         <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -38953,16 +38957,16 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H561" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I561" t="b">
         <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -39159,10 +39163,10 @@
         </is>
       </c>
       <c r="G564" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H564" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I564" t="b">
         <v>0</v>
@@ -39229,16 +39233,16 @@
         </is>
       </c>
       <c r="G565" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H565" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I565" t="b">
         <v>0</v>
       </c>
       <c r="J565" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -39299,7 +39303,7 @@
         </is>
       </c>
       <c r="G566" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H566" t="n">
         <v>1260</v>
@@ -39308,7 +39312,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -39505,16 +39509,16 @@
         </is>
       </c>
       <c r="G569" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="H569" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I569" t="b">
         <v>0</v>
       </c>
       <c r="J569" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -39575,16 +39579,16 @@
         </is>
       </c>
       <c r="G570" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H570" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I570" t="b">
         <v>0</v>
       </c>
       <c r="J570" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -39645,7 +39649,7 @@
         </is>
       </c>
       <c r="G571" t="n">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="H571" t="n">
         <v>1290</v>
@@ -39654,7 +39658,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -39910,25 +39914,25 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>N9234880112</t>
+          <t>N3841456839</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G575" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H575" t="n">
-        <v>1170</v>
+        <v>1230</v>
       </c>
       <c r="I575" t="b">
         <v>0</v>
       </c>
       <c r="J575" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -39949,7 +39953,7 @@
         <v>2</v>
       </c>
       <c r="O575" t="n">
-        <v>2717.067804384121</v>
+        <v>2500.376307537968</v>
       </c>
       <c r="P575" t="inlineStr">
         <is>
@@ -39978,25 +39982,25 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>W30234816</t>
+          <t>N11685092822</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>Node_9</t>
+          <t>Node_17</t>
         </is>
       </c>
       <c r="G576" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H576" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I576" t="b">
         <v>0</v>
       </c>
       <c r="J576" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -40017,7 +40021,7 @@
         <v>2</v>
       </c>
       <c r="O576" t="n">
-        <v>2607.902527351637</v>
+        <v>2721.582441241183</v>
       </c>
       <c r="P576" t="inlineStr">
         <is>
@@ -40221,7 +40225,7 @@
         <v>1</v>
       </c>
       <c r="O579" t="n">
-        <v>2717.067804384121</v>
+        <v>2500.376307537968</v>
       </c>
       <c r="P579" t="inlineStr">
         <is>
@@ -40250,25 +40254,25 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>W1346327093</t>
+          <t>W1149821722</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_11</t>
         </is>
       </c>
       <c r="G580" t="n">
         <v>480</v>
       </c>
       <c r="H580" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I580" t="b">
         <v>0</v>
       </c>
       <c r="J580" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -40289,7 +40293,7 @@
         <v>2</v>
       </c>
       <c r="O580" t="n">
-        <v>3586.843121303354</v>
+        <v>2996.310137792882</v>
       </c>
       <c r="P580" t="inlineStr">
         <is>
@@ -40318,25 +40322,25 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>N11685092822</t>
+          <t>W720432742</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>Node_17</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G581" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H581" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I581" t="b">
         <v>0</v>
       </c>
       <c r="J581" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -40357,7 +40361,7 @@
         <v>2</v>
       </c>
       <c r="O581" t="n">
-        <v>3223.862892033282</v>
+        <v>3220.125950398927</v>
       </c>
       <c r="P581" t="inlineStr">
         <is>
@@ -40531,16 +40535,16 @@
         </is>
       </c>
       <c r="G584" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H584" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I584" t="b">
         <v>0</v>
       </c>
       <c r="J584" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -40601,7 +40605,7 @@
         </is>
       </c>
       <c r="G585" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H585" t="n">
         <v>1320</v>
@@ -40610,7 +40614,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -40671,16 +40675,16 @@
         </is>
       </c>
       <c r="G586" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H586" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I586" t="b">
         <v>0</v>
       </c>
       <c r="J586" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -40877,10 +40881,10 @@
         </is>
       </c>
       <c r="G589" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H589" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I589" t="b">
         <v>0</v>
@@ -40947,16 +40951,16 @@
         </is>
       </c>
       <c r="G590" t="n">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="H590" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I590" t="b">
         <v>0</v>
       </c>
       <c r="J590" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -41017,16 +41021,16 @@
         </is>
       </c>
       <c r="G591" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H591" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I591" t="b">
         <v>0</v>
       </c>
       <c r="J591" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -41226,7 +41230,7 @@
         <v>540</v>
       </c>
       <c r="H594" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I594" t="b">
         <v>0</v>
@@ -41293,16 +41297,16 @@
         </is>
       </c>
       <c r="G595" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H595" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I595" t="b">
         <v>0</v>
       </c>
       <c r="J595" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -41363,7 +41367,7 @@
         </is>
       </c>
       <c r="G596" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H596" t="n">
         <v>1260</v>
@@ -41372,7 +41376,7 @@
         <v>0</v>
       </c>
       <c r="J596" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -41433,16 +41437,16 @@
         </is>
       </c>
       <c r="G597" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H597" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I597" t="b">
         <v>0</v>
       </c>
       <c r="J597" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -41700,25 +41704,25 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>W598405283</t>
+          <t>W123870530</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_42</t>
         </is>
       </c>
       <c r="G601" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H601" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I601" t="b">
         <v>0</v>
       </c>
       <c r="J601" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -41739,7 +41743,7 @@
         <v>2</v>
       </c>
       <c r="O601" t="n">
-        <v>2842.607138365104</v>
+        <v>2743.981429293053</v>
       </c>
       <c r="P601" t="inlineStr">
         <is>
@@ -41768,25 +41772,25 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>N1314066461</t>
+          <t>W229051553</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G602" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H602" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I602" t="b">
         <v>0</v>
       </c>
       <c r="J602" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -41807,7 +41811,7 @@
         <v>2</v>
       </c>
       <c r="O602" t="n">
-        <v>2554.777817058786</v>
+        <v>2647.973613928179</v>
       </c>
       <c r="P602" t="inlineStr">
         <is>
@@ -42011,7 +42015,7 @@
         <v>1</v>
       </c>
       <c r="O605" t="n">
-        <v>2842.607138365104</v>
+        <v>2743.981429293053</v>
       </c>
       <c r="P605" t="inlineStr">
         <is>
@@ -42040,25 +42044,25 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>W598405283</t>
+          <t>W123870530</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_42</t>
         </is>
       </c>
       <c r="G606" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H606" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I606" t="b">
         <v>0</v>
       </c>
       <c r="J606" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -42079,7 +42083,7 @@
         <v>2</v>
       </c>
       <c r="O606" t="n">
-        <v>2842.607138365104</v>
+        <v>2743.981429293053</v>
       </c>
       <c r="P606" t="inlineStr">
         <is>
@@ -42108,25 +42112,25 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>N12984145501</t>
+          <t>W229051553</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G607" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H607" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I607" t="b">
         <v>0</v>
       </c>
       <c r="J607" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -42147,7 +42151,7 @@
         <v>2</v>
       </c>
       <c r="O607" t="n">
-        <v>2554.443700003679</v>
+        <v>2647.973613928179</v>
       </c>
       <c r="P607" t="inlineStr">
         <is>
@@ -42330,7 +42334,7 @@
         <v>0</v>
       </c>
       <c r="J610" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -42391,16 +42395,16 @@
         </is>
       </c>
       <c r="G611" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H611" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I611" t="b">
         <v>0</v>
       </c>
       <c r="J611" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -42597,16 +42601,16 @@
         </is>
       </c>
       <c r="G614" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="H614" t="n">
-        <v>1320</v>
+        <v>1170</v>
       </c>
       <c r="I614" t="b">
         <v>0</v>
       </c>
       <c r="J614" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -42670,13 +42674,13 @@
         <v>570</v>
       </c>
       <c r="H615" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="I615" t="b">
         <v>0</v>
       </c>
       <c r="J615" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -42737,16 +42741,16 @@
         </is>
       </c>
       <c r="G616" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H616" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I616" t="b">
         <v>0</v>
       </c>
       <c r="J616" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -43002,25 +43006,25 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>W1206098140</t>
+          <t>N13255849601</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G620" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H620" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I620" t="b">
         <v>0</v>
       </c>
       <c r="J620" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -43041,7 +43045,7 @@
         <v>2</v>
       </c>
       <c r="O620" t="n">
-        <v>3205.1303935494</v>
+        <v>3461.697166534946</v>
       </c>
       <c r="P620" t="inlineStr">
         <is>
@@ -43070,7 +43074,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>W328144864</t>
+          <t>W30228589</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -43079,16 +43083,16 @@
         </is>
       </c>
       <c r="G621" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H621" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I621" t="b">
         <v>0</v>
       </c>
       <c r="J621" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -43109,7 +43113,7 @@
         <v>2</v>
       </c>
       <c r="O621" t="n">
-        <v>3327.737093196426</v>
+        <v>3144.064386892474</v>
       </c>
       <c r="P621" t="inlineStr">
         <is>
@@ -43313,7 +43317,7 @@
         <v>1</v>
       </c>
       <c r="O624" t="n">
-        <v>3205.1303935494</v>
+        <v>3461.697166534946</v>
       </c>
       <c r="P624" t="inlineStr">
         <is>
@@ -43342,25 +43346,25 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>N12379285048</t>
+          <t>W703497923</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_31</t>
         </is>
       </c>
       <c r="G625" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="H625" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I625" t="b">
         <v>0</v>
       </c>
       <c r="J625" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -43381,7 +43385,7 @@
         <v>2</v>
       </c>
       <c r="O625" t="n">
-        <v>3368.372055888705</v>
+        <v>3573.213531774369</v>
       </c>
       <c r="P625" t="inlineStr">
         <is>
@@ -43410,25 +43414,25 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>W538733613</t>
+          <t>W637435072</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G626" t="n">
         <v>450</v>
       </c>
       <c r="H626" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I626" t="b">
         <v>0</v>
       </c>
       <c r="J626" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -43449,7 +43453,7 @@
         <v>2</v>
       </c>
       <c r="O626" t="n">
-        <v>3006.254441045346</v>
+        <v>2994.48121281225</v>
       </c>
       <c r="P626" t="inlineStr">
         <is>
@@ -43623,10 +43627,10 @@
         </is>
       </c>
       <c r="G629" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H629" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I629" t="b">
         <v>0</v>
@@ -43696,13 +43700,13 @@
         <v>510</v>
       </c>
       <c r="H630" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I630" t="b">
         <v>0</v>
       </c>
       <c r="J630" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -43763,16 +43767,16 @@
         </is>
       </c>
       <c r="G631" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H631" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I631" t="b">
         <v>0</v>
       </c>
       <c r="J631" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -43833,7 +43837,7 @@
         </is>
       </c>
       <c r="G632" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H632" t="n">
         <v>1320</v>
@@ -43842,7 +43846,7 @@
         <v>0</v>
       </c>
       <c r="J632" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -44039,10 +44043,10 @@
         </is>
       </c>
       <c r="G635" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H635" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I635" t="b">
         <v>0</v>
@@ -44109,16 +44113,16 @@
         </is>
       </c>
       <c r="G636" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H636" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I636" t="b">
         <v>0</v>
       </c>
       <c r="J636" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -44179,7 +44183,7 @@
         </is>
       </c>
       <c r="G637" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="H637" t="n">
         <v>1230</v>
@@ -44188,7 +44192,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -44446,7 +44450,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>N4475401040</t>
+          <t>N4247172293</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -44458,7 +44462,7 @@
         <v>480</v>
       </c>
       <c r="H641" t="n">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="I641" t="b">
         <v>0</v>
@@ -44485,7 +44489,7 @@
         <v>2</v>
       </c>
       <c r="O641" t="n">
-        <v>3243.288899050756</v>
+        <v>3281.750244746918</v>
       </c>
       <c r="P641" t="inlineStr">
         <is>
@@ -44514,19 +44518,19 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>W1156007637</t>
+          <t>N11685092822</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_17</t>
         </is>
       </c>
       <c r="G642" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H642" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I642" t="b">
         <v>0</v>
@@ -44553,7 +44557,7 @@
         <v>2</v>
       </c>
       <c r="O642" t="n">
-        <v>3025.475201573744</v>
+        <v>3044.16538491863</v>
       </c>
       <c r="P642" t="inlineStr">
         <is>
@@ -44757,7 +44761,7 @@
         <v>1</v>
       </c>
       <c r="O645" t="n">
-        <v>3243.288899050756</v>
+        <v>3281.750244746918</v>
       </c>
       <c r="P645" t="inlineStr">
         <is>
@@ -44786,25 +44790,25 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>N6304094831</t>
+          <t>W376310803</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>Node_4</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G646" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H646" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I646" t="b">
         <v>0</v>
       </c>
       <c r="J646" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -44825,7 +44829,7 @@
         <v>2</v>
       </c>
       <c r="O646" t="n">
-        <v>2961.060503431986</v>
+        <v>2484.107380333116</v>
       </c>
       <c r="P646" t="inlineStr">
         <is>
@@ -44854,7 +44858,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>N12984145501</t>
+          <t>N4469405590</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -44863,16 +44867,16 @@
         </is>
       </c>
       <c r="G647" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H647" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I647" t="b">
         <v>0</v>
       </c>
       <c r="J647" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -44893,7 +44897,7 @@
         <v>2</v>
       </c>
       <c r="O647" t="n">
-        <v>2493.637315672623</v>
+        <v>2578.155491951637</v>
       </c>
       <c r="P647" t="inlineStr">
         <is>
@@ -45140,13 +45144,13 @@
         <v>540</v>
       </c>
       <c r="H651" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I651" t="b">
         <v>0</v>
       </c>
       <c r="J651" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -45210,13 +45214,13 @@
         <v>600</v>
       </c>
       <c r="H652" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I652" t="b">
         <v>0</v>
       </c>
       <c r="J652" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -45413,16 +45417,16 @@
         </is>
       </c>
       <c r="G655" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H655" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I655" t="b">
         <v>0</v>
       </c>
       <c r="J655" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -45486,13 +45490,13 @@
         <v>630</v>
       </c>
       <c r="H656" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I656" t="b">
         <v>0</v>
       </c>
       <c r="J656" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -45689,16 +45693,16 @@
         </is>
       </c>
       <c r="G659" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="H659" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I659" t="b">
         <v>0</v>
       </c>
       <c r="J659" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -45759,16 +45763,16 @@
         </is>
       </c>
       <c r="G660" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="H660" t="n">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="I660" t="b">
         <v>0</v>
       </c>
       <c r="J660" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -46026,7 +46030,7 @@
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>W30238006</t>
+          <t>W376310803</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -46035,16 +46039,16 @@
         </is>
       </c>
       <c r="G664" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="H664" t="n">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="I664" t="b">
         <v>0</v>
       </c>
       <c r="J664" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -46065,7 +46069,7 @@
         <v>2</v>
       </c>
       <c r="O664" t="n">
-        <v>4849.690164498686</v>
+        <v>4400.316093241853</v>
       </c>
       <c r="P664" t="inlineStr">
         <is>
@@ -46094,25 +46098,25 @@
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>W895265716</t>
+          <t>W30228791</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_19</t>
         </is>
       </c>
       <c r="G665" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H665" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="I665" t="b">
         <v>0</v>
       </c>
       <c r="J665" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -46133,7 +46137,7 @@
         <v>2</v>
       </c>
       <c r="O665" t="n">
-        <v>4466.343813905235</v>
+        <v>4952.44402398776</v>
       </c>
       <c r="P665" t="inlineStr">
         <is>
@@ -46337,7 +46341,7 @@
         <v>1</v>
       </c>
       <c r="O668" t="n">
-        <v>2544.151329190616</v>
+        <v>5835.003771601578</v>
       </c>
       <c r="P668" t="inlineStr">
         <is>
@@ -46366,16 +46370,16 @@
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>W123870530</t>
+          <t>N10727545074</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>Node_42</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G669" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H669" t="n">
         <v>1320</v>
@@ -46384,7 +46388,7 @@
         <v>0</v>
       </c>
       <c r="J669" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -46405,7 +46409,7 @@
         <v>2</v>
       </c>
       <c r="O669" t="n">
-        <v>4990.485833604193</v>
+        <v>4686.256983778097</v>
       </c>
       <c r="P669" t="inlineStr">
         <is>
@@ -46434,7 +46438,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>W30229190</t>
+          <t>W328144864</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -46446,13 +46450,13 @@
         <v>420</v>
       </c>
       <c r="H670" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I670" t="b">
         <v>0</v>
       </c>
       <c r="J670" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -46473,7 +46477,7 @@
         <v>2</v>
       </c>
       <c r="O670" t="n">
-        <v>4389.286141521014</v>
+        <v>4427.663190538179</v>
       </c>
       <c r="P670" t="inlineStr">
         <is>
@@ -46650,7 +46654,7 @@
         <v>540</v>
       </c>
       <c r="H673" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I673" t="b">
         <v>1</v>
@@ -46717,16 +46721,16 @@
         </is>
       </c>
       <c r="G674" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H674" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I674" t="b">
         <v>0</v>
       </c>
       <c r="J674" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -46787,16 +46791,16 @@
         </is>
       </c>
       <c r="G675" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H675" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I675" t="b">
         <v>0</v>
       </c>
       <c r="J675" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -47054,16 +47058,16 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>R6109929</t>
+          <t>W30227676</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>Node_7</t>
+          <t>Node_32</t>
         </is>
       </c>
       <c r="G679" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H679" t="n">
         <v>1140</v>
@@ -47072,7 +47076,7 @@
         <v>0</v>
       </c>
       <c r="J679" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -47093,7 +47097,7 @@
         <v>2</v>
       </c>
       <c r="O679" t="n">
-        <v>6038.64696641638</v>
+        <v>6307.437664648411</v>
       </c>
       <c r="P679" t="inlineStr">
         <is>
@@ -47122,25 +47126,25 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>N12386361676</t>
+          <t>W1156007637</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G680" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H680" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I680" t="b">
         <v>0</v>
       </c>
       <c r="J680" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -47161,7 +47165,7 @@
         <v>2</v>
       </c>
       <c r="O680" t="n">
-        <v>5983.645863183124</v>
+        <v>6020.294484413102</v>
       </c>
       <c r="P680" t="inlineStr">
         <is>
@@ -47335,10 +47339,10 @@
         </is>
       </c>
       <c r="G683" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H683" t="n">
-        <v>1110</v>
+        <v>1320</v>
       </c>
       <c r="I683" t="b">
         <v>0</v>
@@ -47405,16 +47409,16 @@
         </is>
       </c>
       <c r="G684" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H684" t="n">
-        <v>1290</v>
+        <v>1170</v>
       </c>
       <c r="I684" t="b">
         <v>0</v>
       </c>
       <c r="J684" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -47475,16 +47479,16 @@
         </is>
       </c>
       <c r="G685" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="H685" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I685" t="b">
         <v>0</v>
       </c>
       <c r="J685" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -47684,7 +47688,7 @@
         <v>480</v>
       </c>
       <c r="H688" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I688" t="b">
         <v>1</v>
@@ -47751,16 +47755,16 @@
         </is>
       </c>
       <c r="G689" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H689" t="n">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="I689" t="b">
         <v>0</v>
       </c>
       <c r="J689" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -47824,13 +47828,13 @@
         <v>540</v>
       </c>
       <c r="H690" t="n">
-        <v>1200</v>
+        <v>1290</v>
       </c>
       <c r="I690" t="b">
         <v>0</v>
       </c>
       <c r="J690" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -48027,10 +48031,10 @@
         </is>
       </c>
       <c r="G693" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H693" t="n">
-        <v>1020</v>
+        <v>1320</v>
       </c>
       <c r="I693" t="b">
         <v>0</v>
@@ -48097,16 +48101,16 @@
         </is>
       </c>
       <c r="G694" t="n">
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="H694" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I694" t="b">
         <v>0</v>
       </c>
       <c r="J694" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -48167,16 +48171,16 @@
         </is>
       </c>
       <c r="G695" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H695" t="n">
-        <v>1320</v>
+        <v>1170</v>
       </c>
       <c r="I695" t="b">
         <v>0</v>
       </c>
       <c r="J695" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -48373,7 +48377,7 @@
         </is>
       </c>
       <c r="G698" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H698" t="n">
         <v>1320</v>
@@ -48382,7 +48386,7 @@
         <v>0</v>
       </c>
       <c r="J698" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -48446,13 +48450,13 @@
         <v>630</v>
       </c>
       <c r="H699" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I699" t="b">
         <v>0</v>
       </c>
       <c r="J699" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -48649,10 +48653,10 @@
         </is>
       </c>
       <c r="G702" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H702" t="n">
-        <v>1320</v>
+        <v>1170</v>
       </c>
       <c r="I702" t="b">
         <v>0</v>
@@ -48719,16 +48723,16 @@
         </is>
       </c>
       <c r="G703" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="H703" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I703" t="b">
         <v>0</v>
       </c>
       <c r="J703" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -48792,13 +48796,13 @@
         <v>510</v>
       </c>
       <c r="H704" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I704" t="b">
         <v>0</v>
       </c>
       <c r="J704" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -48995,16 +48999,16 @@
         </is>
       </c>
       <c r="G707" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H707" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I707" t="b">
         <v>0</v>
       </c>
       <c r="J707" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -49065,16 +49069,16 @@
         </is>
       </c>
       <c r="G708" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="H708" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I708" t="b">
         <v>0</v>
       </c>
       <c r="J708" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -49271,7 +49275,7 @@
         </is>
       </c>
       <c r="G711" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H711" t="n">
         <v>1320</v>
@@ -49341,16 +49345,16 @@
         </is>
       </c>
       <c r="G712" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H712" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I712" t="b">
         <v>0</v>
       </c>
       <c r="J712" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -49411,16 +49415,16 @@
         </is>
       </c>
       <c r="G713" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="H713" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I713" t="b">
         <v>0</v>
       </c>
       <c r="J713" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -49617,16 +49621,16 @@
         </is>
       </c>
       <c r="G716" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H716" t="n">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="I716" t="b">
         <v>0</v>
       </c>
       <c r="J716" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -49687,16 +49691,16 @@
         </is>
       </c>
       <c r="G717" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H717" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I717" t="b">
         <v>0</v>
       </c>
       <c r="J717" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -49893,16 +49897,16 @@
         </is>
       </c>
       <c r="G720" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="H720" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I720" t="b">
         <v>0</v>
       </c>
       <c r="J720" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -49963,16 +49967,16 @@
         </is>
       </c>
       <c r="G721" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="H721" t="n">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="I721" t="b">
         <v>0</v>
       </c>
       <c r="J721" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -50169,10 +50173,10 @@
         </is>
       </c>
       <c r="G724" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H724" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I724" t="b">
         <v>0</v>
@@ -50239,7 +50243,7 @@
         </is>
       </c>
       <c r="G725" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H725" t="n">
         <v>1320</v>
@@ -50248,7 +50252,7 @@
         <v>0</v>
       </c>
       <c r="J725" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -50309,16 +50313,16 @@
         </is>
       </c>
       <c r="G726" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="H726" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I726" t="b">
         <v>0</v>
       </c>
       <c r="J726" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -50379,16 +50383,16 @@
         </is>
       </c>
       <c r="G727" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H727" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I727" t="b">
         <v>0</v>
       </c>
       <c r="J727" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -50644,7 +50648,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>W30224247</t>
+          <t>W30227844</t>
         </is>
       </c>
       <c r="F731" t="inlineStr">
@@ -50653,16 +50657,16 @@
         </is>
       </c>
       <c r="G731" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H731" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I731" t="b">
         <v>0</v>
       </c>
       <c r="J731" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -50683,7 +50687,7 @@
         <v>2</v>
       </c>
       <c r="O731" t="n">
-        <v>3399.064410137701</v>
+        <v>3515.830251360292</v>
       </c>
       <c r="P731" t="inlineStr">
         <is>
@@ -50730,7 +50734,7 @@
         <v>0</v>
       </c>
       <c r="J732" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -50751,7 +50755,7 @@
         <v>2</v>
       </c>
       <c r="O732" t="n">
-        <v>3134.040826489508</v>
+        <v>3004.073840200507</v>
       </c>
       <c r="P732" t="inlineStr">
         <is>
@@ -50955,7 +50959,7 @@
         <v>1</v>
       </c>
       <c r="O735" t="n">
-        <v>3399.064410137701</v>
+        <v>3515.830251360292</v>
       </c>
       <c r="P735" t="inlineStr">
         <is>
@@ -50984,25 +50988,25 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>W30228791</t>
+          <t>W423854741</t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>Node_19</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G736" t="n">
         <v>450</v>
       </c>
       <c r="H736" t="n">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="I736" t="b">
         <v>0</v>
       </c>
       <c r="J736" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -51023,7 +51027,7 @@
         <v>2</v>
       </c>
       <c r="O736" t="n">
-        <v>2825.813349243024</v>
+        <v>2750.72556962883</v>
       </c>
       <c r="P736" t="inlineStr">
         <is>
@@ -51052,25 +51056,25 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>R6109929</t>
+          <t>N11573330629</t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>Node_7</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G737" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H737" t="n">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="I737" t="b">
         <v>0</v>
       </c>
       <c r="J737" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -51091,7 +51095,7 @@
         <v>2</v>
       </c>
       <c r="O737" t="n">
-        <v>2681.880086219327</v>
+        <v>2768.858190403268</v>
       </c>
       <c r="P737" t="inlineStr">
         <is>
@@ -51295,7 +51299,7 @@
         <v>1</v>
       </c>
       <c r="O740" t="n">
-        <v>2825.813349243024</v>
+        <v>2750.72556962883</v>
       </c>
       <c r="P740" t="inlineStr">
         <is>
@@ -51324,25 +51328,25 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>W30227676</t>
+          <t>W399084468</t>
         </is>
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>Node_32</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G741" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H741" t="n">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="I741" t="b">
         <v>0</v>
       </c>
       <c r="J741" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -51363,7 +51367,7 @@
         <v>2</v>
       </c>
       <c r="O741" t="n">
-        <v>3446.133091252033</v>
+        <v>3184.266635658113</v>
       </c>
       <c r="P741" t="inlineStr">
         <is>
@@ -51392,25 +51396,25 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>N3029595703</t>
+          <t>W328144864</t>
         </is>
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>Node_6</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G742" t="n">
         <v>420</v>
       </c>
       <c r="H742" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I742" t="b">
         <v>0</v>
       </c>
       <c r="J742" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -51431,7 +51435,7 @@
         <v>2</v>
       </c>
       <c r="O742" t="n">
-        <v>3125.262332292876</v>
+        <v>3136.644083996515</v>
       </c>
       <c r="P742" t="inlineStr">
         <is>
@@ -51605,10 +51609,10 @@
         </is>
       </c>
       <c r="G745" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="H745" t="n">
-        <v>1110</v>
+        <v>1320</v>
       </c>
       <c r="I745" t="b">
         <v>0</v>
@@ -51678,13 +51682,13 @@
         <v>570</v>
       </c>
       <c r="H746" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I746" t="b">
         <v>0</v>
       </c>
       <c r="J746" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -51745,16 +51749,16 @@
         </is>
       </c>
       <c r="G747" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H747" t="n">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="I747" t="b">
         <v>0</v>
       </c>
       <c r="J747" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -52012,25 +52016,25 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>W30223305</t>
+          <t>N11129640193</t>
         </is>
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>Node_23</t>
+          <t>Node_29</t>
         </is>
       </c>
       <c r="G751" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H751" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="I751" t="b">
         <v>0</v>
       </c>
       <c r="J751" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -52051,7 +52055,7 @@
         <v>2</v>
       </c>
       <c r="O751" t="n">
-        <v>2533.63192411297</v>
+        <v>2744.604313728855</v>
       </c>
       <c r="P751" t="inlineStr">
         <is>
@@ -52080,25 +52084,25 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>N10956838295</t>
+          <t>W637435072</t>
         </is>
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G752" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="H752" t="n">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="I752" t="b">
         <v>0</v>
       </c>
       <c r="J752" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -52119,7 +52123,7 @@
         <v>2</v>
       </c>
       <c r="O752" t="n">
-        <v>2901.517190012978</v>
+        <v>2541.085994375525</v>
       </c>
       <c r="P752" t="inlineStr">
         <is>
@@ -52323,7 +52327,7 @@
         <v>1</v>
       </c>
       <c r="O755" t="n">
-        <v>2533.63192411297</v>
+        <v>2744.604313728855</v>
       </c>
       <c r="P755" t="inlineStr">
         <is>
@@ -52352,25 +52356,25 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>W30227340</t>
+          <t>W30223305</t>
         </is>
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_23</t>
         </is>
       </c>
       <c r="G756" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H756" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I756" t="b">
         <v>0</v>
       </c>
       <c r="J756" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -52391,7 +52395,7 @@
         <v>2</v>
       </c>
       <c r="O756" t="n">
-        <v>2851.285599304362</v>
+        <v>2533.63192411297</v>
       </c>
       <c r="P756" t="inlineStr">
         <is>
@@ -52420,25 +52424,25 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>W130037641</t>
+          <t>W30224247</t>
         </is>
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>Node_11</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G757" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H757" t="n">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="I757" t="b">
         <v>0</v>
       </c>
       <c r="J757" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -52459,7 +52463,7 @@
         <v>2</v>
       </c>
       <c r="O757" t="n">
-        <v>2979.863188346453</v>
+        <v>2650.723185048144</v>
       </c>
       <c r="P757" t="inlineStr">
         <is>
@@ -52633,7 +52637,7 @@
         </is>
       </c>
       <c r="G760" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H760" t="n">
         <v>1320</v>
@@ -52703,16 +52707,16 @@
         </is>
       </c>
       <c r="G761" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H761" t="n">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="I761" t="b">
         <v>0</v>
       </c>
       <c r="J761" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -52782,7 +52786,7 @@
         <v>0</v>
       </c>
       <c r="J762" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -52979,10 +52983,10 @@
         </is>
       </c>
       <c r="G765" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H765" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I765" t="b">
         <v>0</v>
@@ -53052,13 +53056,13 @@
         <v>510</v>
       </c>
       <c r="H766" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="I766" t="b">
         <v>0</v>
       </c>
       <c r="J766" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -53119,16 +53123,16 @@
         </is>
       </c>
       <c r="G767" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="H767" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="I767" t="b">
         <v>0</v>
       </c>
       <c r="J767" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -53325,10 +53329,10 @@
         </is>
       </c>
       <c r="G770" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="H770" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I770" t="b">
         <v>0</v>
@@ -53395,16 +53399,16 @@
         </is>
       </c>
       <c r="G771" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H771" t="n">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="I771" t="b">
         <v>0</v>
       </c>
       <c r="J771" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -53465,16 +53469,16 @@
         </is>
       </c>
       <c r="G772" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="H772" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="I772" t="b">
         <v>0</v>
       </c>
       <c r="J772" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -53535,16 +53539,16 @@
         </is>
       </c>
       <c r="G773" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H773" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I773" t="b">
         <v>0</v>
       </c>
       <c r="J773" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -53741,10 +53745,10 @@
         </is>
       </c>
       <c r="G776" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H776" t="n">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="I776" t="b">
         <v>0</v>
@@ -53811,16 +53815,16 @@
         </is>
       </c>
       <c r="G777" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="H777" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I777" t="b">
         <v>0</v>
       </c>
       <c r="J777" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -53881,7 +53885,7 @@
         </is>
       </c>
       <c r="G778" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="H778" t="n">
         <v>1260</v>
@@ -53890,7 +53894,7 @@
         <v>0</v>
       </c>
       <c r="J778" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -54087,10 +54091,10 @@
         </is>
       </c>
       <c r="G781" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="H781" t="n">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="I781" t="b">
         <v>0</v>
@@ -54160,7 +54164,7 @@
         <v>600</v>
       </c>
       <c r="H782" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I782" t="b">
         <v>0</v>
@@ -54230,7 +54234,7 @@
         <v>570</v>
       </c>
       <c r="H783" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="I783" t="b">
         <v>0</v>
@@ -54492,25 +54496,25 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>N12872951501</t>
+          <t>N12032696650</t>
         </is>
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>Node_26</t>
+          <t>Node_9</t>
         </is>
       </c>
       <c r="G787" t="n">
         <v>420</v>
       </c>
       <c r="H787" t="n">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="I787" t="b">
         <v>0</v>
       </c>
       <c r="J787" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -54531,7 +54535,7 @@
         <v>2</v>
       </c>
       <c r="O787" t="n">
-        <v>2700.71115458955</v>
+        <v>2972.227433497863</v>
       </c>
       <c r="P787" t="inlineStr">
         <is>
@@ -54560,16 +54564,16 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>N2885002036</t>
+          <t>W1125334336</t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>Node_1</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G788" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H788" t="n">
         <v>1260</v>
@@ -54578,7 +54582,7 @@
         <v>0</v>
       </c>
       <c r="J788" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -54599,7 +54603,7 @@
         <v>2</v>
       </c>
       <c r="O788" t="n">
-        <v>2704.203433598672</v>
+        <v>2695.197818873339</v>
       </c>
       <c r="P788" t="inlineStr">
         <is>
@@ -54803,7 +54807,7 @@
         <v>1</v>
       </c>
       <c r="O791" t="n">
-        <v>2700.71115458955</v>
+        <v>2972.227433497863</v>
       </c>
       <c r="P791" t="inlineStr">
         <is>
@@ -54832,25 +54836,25 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>N12028940194</t>
+          <t>W1206098140</t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>Node_4</t>
+          <t>Node_1</t>
         </is>
       </c>
       <c r="G792" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H792" t="n">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="I792" t="b">
         <v>0</v>
       </c>
       <c r="J792" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -54871,7 +54875,7 @@
         <v>2</v>
       </c>
       <c r="O792" t="n">
-        <v>2629.758861620699</v>
+        <v>2929.199789211661</v>
       </c>
       <c r="P792" t="inlineStr">
         <is>
@@ -54900,25 +54904,25 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>N3029595703</t>
+          <t>W1125334336</t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>Node_6</t>
+          <t>Node_0</t>
         </is>
       </c>
       <c r="G793" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="H793" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="I793" t="b">
         <v>0</v>
       </c>
       <c r="J793" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -54939,7 +54943,7 @@
         <v>2</v>
       </c>
       <c r="O793" t="n">
-        <v>2983.799098037579</v>
+        <v>2781.309266543289</v>
       </c>
       <c r="P793" t="inlineStr">
         <is>
@@ -55113,16 +55117,16 @@
         </is>
       </c>
       <c r="G796" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H796" t="n">
-        <v>1170</v>
+        <v>1290</v>
       </c>
       <c r="I796" t="b">
         <v>0</v>
       </c>
       <c r="J796" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -55183,16 +55187,16 @@
         </is>
       </c>
       <c r="G797" t="n">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="H797" t="n">
-        <v>1320</v>
+        <v>1170</v>
       </c>
       <c r="I797" t="b">
         <v>0</v>
       </c>
       <c r="J797" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
